--- a/biology/Zoologie/Irritator/Irritator.xlsx
+++ b/biology/Zoologie/Irritator/Irritator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Irritator challengeri
 Irritator  est un genre de dinosaure spinosauridé apparenté au spinosaure. Il a vécu au début du Crétacé, il y a environ 110 Ma. Les estimations actuelles sur sa taille indiquent une longueur de 8 m pour une hauteur de 3 m.
 On n'en connait qu'une seule espèce : Irritator challengeri.
-Il a été nommé en 1996 par les paléontologues Martill, Cruikshank, Frey, Small &amp; Clarke. Irritator rappelle l'état d'irritation de ceux-ci en constatant que son seul fossile connu, un crâne de 80 cm découvert au Brésil, avait été très obscurci par du plâtre ajouté par des contrebandiers qui comptaient faire grimper le prix du fossile, et avait requis un grand effort de restauration — d'où le nom[1].
+Il a été nommé en 1996 par les paléontologues Martill, Cruikshank, Frey, Small &amp; Clarke. Irritator rappelle l'état d'irritation de ceux-ci en constatant que son seul fossile connu, un crâne de 80 cm découvert au Brésil, avait été très obscurci par du plâtre ajouté par des contrebandiers qui comptaient faire grimper le prix du fossile, et avait requis un grand effort de restauration — d'où le nom.
 Le nom de l'espèce, challengeri, constitue un hommage au professeur Challenger, un des personnages principaux du roman d'Arthur Conan Doyle, Le Monde perdu (1912).
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est probablement synonyme d’Angaturama limai, un autre spinosauridé contemporain sur la même zone géographique, et dont les restes complètent curieusement le crâne d'Irritator : ils pourraient appartenir à la même espèce ou au même spécimen. Il n'est même pas exclu que Spinosaurus et Irritator puissent être congénériques (c’est-à-dire, qu‘Irritator challengeri pourrait en réalité être Spinosaurus challengeri).
 Il est estimé qu‘Irritator mesurait environ 8 mètres de long et pesait 2 tonnes, et qu'il vivait au Crétacé inférieur.
